--- a/web/weibo.xlsx
+++ b/web/weibo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="167">
   <si>
     <t>用户</t>
   </si>
@@ -37,496 +37,484 @@
     <t>来源</t>
   </si>
   <si>
-    <t xml:space="preserve">@看山人-冬: 你这80后！哎！沉迷美色，还未悟道！怎么可能取得更多人的信任！人生的价值观有点偏，能为社会做些正能量的事，更能体现你的价值！点评：你看看这个抖音。 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">六氟磷酸锂涨了好几倍，还有机会么 叶飞私募冠军直说的微博直播 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">老白干酒拉升封板，青青稞酒、山西汾酒、伊力特、金种子酒等跟涨。点评：我对白酒一直有信心。哈哈。。3月底和4月一直分析强调白酒机会。。 </t>
-  </si>
-  <si>
-    <t>据生意社，近日磷化工市场行情上涨，在大宗商品集体“踩刹车”百余种原材料价格下跌的局面中异军突起，迅速达到年内至高点。黄磷领涨磷化工板块，行情堪比2019年价格走势，且带动了相关产品价格指数波动，整体磷化工呈上行走势。生意社磷铵分析师认为，目前磷化工市场供应有所收紧，短期内仍有上行预期...全文</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0528安徽经济台叶飞股评 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t>【草甘膦报价4.4万元每吨 企业订单已排到9月份】5月28日讯，据财联社记者多方采访了解到，近日草甘膦厂家给老客户报价4.4万元/吨，贸易商方面已有4.6万元/吨的价格成交。这创下近十年草甘膦价格新高。且近日原料黄磷强势涨价对草甘膦行情继续上行起着支撑作用，不少草甘膦企业订单已排至今年9月，预计...全文</t>
-  </si>
-  <si>
-    <t xml:space="preserve">传媒股早盘走弱】5月28日讯，川网传媒跌近9%，新华网、人民网、广电网络跌近4%。点评”：早说了走弱。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">方正证券拉升触板，兴业证券此前涨停，国盛金控、东方证券、东吴证券、广发证券等跟涨。点评：市场火热，但是指数要震荡。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">多氟多在互动平台表示，公司有六氟磷酸钠产品，目前实现批量外售，公司将根据市场情况，适时启动相应扩产计划。 </t>
-  </si>
-  <si>
-    <t>午评：权重带动创业板指涨1.35% 锂电池股大涨】5月28日讯，早盘大小指数分化，沪指窄幅震荡，受宁德时代、亿纬锂能、阳光电源等权重大涨带动，创业板指大涨1.35%。整体上，板块轮动加快，个股红少绿多，题材持续性较差，昨日强势的芯片产业链今日便迎来调整。另外，锂电池板块迎来大涨，科创板容百科技...全文</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0528炒股票的基础方法 叶飞私募冠军直说的微博直播 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5月25日，微信公众号，免费关注的旅游蓝筹股首旅酒店，市值280亿。自我们关注后，连涨三天，涨了15%。是不是妥妥的。。不推荐任何个股只是关注，先知先觉，没有马后炮 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">五分钟后直播，主题：0528如何炒股？有什么办法 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">路过 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">猜谜结束，等天亮了上午就到三亚了。27小时火车三亚，海口，旅游股第一站调研st东海。一个月内，一共调研全国三只旅游股。 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">没去酒店，直接进入工作模式。。等着开盘。。27小时火车过瘾。。。点评：故天将降大任于斯人也，必先苦其心志，劳其筋骨，饿其体肤，空乏其身，行拂乱其所为，所以动心忍性，曾益其所不能 </t>
-  </si>
-  <si>
-    <t>中信证券：看好锂价继续上涨和具备一体化布局的公司】5月28日讯，中信证券认为，南美盐湖提锂企业扩产节奏加快，但仍无法缓解当前锂行业供应紧张局面。一体化的盐湖提锂项目得益于低成本和低排放优势市场份额有望扩大，国内盐湖提锂产业受益于政策支持和锂价回暖发展将提速。看好锂价继续上涨和具备一...全文</t>
-  </si>
-  <si>
-    <t xml:space="preserve">别人家的基金经理都说，长期投资不是目的，而是手段。这充分说明，这类型的基金短线水平很差。所以，基金经理要换！必须换！我的基金，三个月后新产品发行，让大家知道，什么叫短线能力。。什么叫闪电战。什么叫快乐星球。。有兴趣的，私信联系我即可。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">旅游股调研路线图之一。。27小时路程 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">网名：Yun 殇。第一个字打不出来。谁认识这个妹子。这是我五年前的网友。一个拿过奖的，浙江模特。美空网好像有她照片。谁认识？有联系方式吗 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">昨晚的猜谜游戏。有三位先生参与我赢了2个，输了一个。收益50元。哈哈哈。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:00 【拜登拟提出6万亿美元预算 以促进基础设施建设】财联社5月27日讯，美国总统拜登将于周五提议2022财年预算支出6万亿美元，总支出到2031年增至8.2万亿美元。拜登计划2022财年将资金用于基础设施、教育和医疗保健方面。 (纽约时报)(来自财联社APP)点评：刺激美国经济再度崛起，继续看半年复苏 </t>
-  </si>
-  <si>
-    <t>22:42 财联社5月27日讯，全球最大铜矿商Freeport CEO表示，铜市场“表现得非同寻常的强劲”。与原油不同的是，铜受到缺乏勘探成果的支持。需要弥补铜市场的供应缺口。(来自财联社APP)22:42 财联社5月27日讯，全球最大铜矿商Freeport CEO表示，铜市场“表现得非同寻常的强劲”。与原油不同的是，铜受到...全文</t>
-  </si>
-  <si>
-    <t xml:space="preserve">我也凑热闹。@黄燕铭 老黄，LOOK来一首：九月横盘干双头如果突破更加牛券商不能担大任白酒依然醉飘香重新抱团敢死队舵主出狱妖股旺外资拥抱大消费公募傻啃金融票游资涨停挑次新散户吃瓜又一年 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">美东时间周四，美股三大指数涨跌不一。截止收盘，道指涨0.41%，纳指跌0.01%，标普500指数涨0.12%。部分散户抱团概念股表现活跃，其中AMC院线盘中最大涨幅超过50%，今年累计涨幅超过1000%点评：下次晚美股开盘，我的美股客户考虑关注ACH。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">生活就是这样，别人只看结果，自己独撑过程。   叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">“喜欢 合适 是两件事”“为什么啊”“买过鞋吗”  点评：第一次坐火车过海 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">大盘分析，个股交流 叶飞私募冠军直说的微博直播 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">你还记得大明湖畔的商业股吗？ 叶飞私募冠军直说的微博直播 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">五分钟后直播 主题：你还记得大明湖畔的商业股吗？ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">如果你怕输，那你一辈子也赢不了。。玩个有奖竞猜，出个问题：今天我从成都出发，不能高铁。那么请问，23——28个小时之内，会在哪个旅游城市？调研相关的旅游上市公司第一站。答对了，奖励100块。答错了，给我50块。限100名回答。50块需要私信我先付。否则答案无效。 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">这个妹子跳舞很协调。。厉害。。我都跳不好 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">坚定看好旅游和商业的捡钱！ 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">他这个创业太低端。用脑子赚钱肯定比用体力赚钱要快。。 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">目前限量版股票方法光盘300套，只剩下240套。。请私信联系购买，有叶老师签名。物超所值。原价580。三年后，叶老师以每套1160元的价格回购这300套。。立此为据！ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">独家专访叶飞：中国散户的钱是怎么亏掉的？黑幕大曝光！（清洁版） 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">赚钱的方法和内容。 叶飞私募冠军直说的微博直播 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">独家专访叶飞：中国散户的钱是怎么亏掉的？黑幕大曝光！ 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#最in群主在线营业# 我的粉丝群 叶飞私募冠军的粉丝群2 已创建！我会在此空降和你们一起玩耍，速来入群啦！ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">一个人的成熟标志大概就是：人不作话不多事不拖，与自己无关的事，不问不想也不说。 点评：火车上的盒饭太紧俏了，我只是睡了一会，米饭就卖完了。。只能吃面。。我们这一行，忌讳吃面。哪怕是番茄牛腩面。。里面一块大点的牛肉都看不到。。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0527补了第二个缺口之后 叶飞私募冠军直说的微博直播 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">五分钟后直播，条件艰苦，见谅。主题：大盘补了第二个缺口 </t>
-  </si>
-  <si>
-    <t>大家好，谢谢粉丝关注。（骂声也是一种关注，掌声也是一种赞扬）。干货1：我计划开设国内五家新公司，我不控股。通过公司合法合规运营，收购一些私募基金公司股权，再通过收购的私募基金公司发行新的私募基金产品，募集3000万到2亿规模，三年做到20亿以上。然后，赚钱还债。2：通过再版2013年的...全文</t>
-  </si>
-  <si>
-    <t xml:space="preserve">请注意新浪微博V+的学员功能！订阅之后，有专属直播和文章和学习方法交流。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0527安徽经济台叶飞股评 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">看到一段话：生活各自不易，个人所求不同，各自立场不一，勿在别人心中修行自己，勿在自己心中强求别人。   叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">每当不开心的时候，就去看看罗老师普法。生动活。讲相声的人才。。 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">给购买光盘粉丝的签名和祝福。谢谢 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">“人生四句话：活着就是胜利，挣钱只是游戏，健康才是目的，快乐才是真谛！“ 快乐才是真谛 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">你想要的 岁月都会给你可是 你不努力你想要的 岁月凭什么给你  。。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">药不治假病。酒不解真愁，衣不如新，人不如故，青涩不及当初，聚散不由你我。  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">长夜漫漫 晶晶姑娘你也睡不着啊 叶飞私募冠军直说的微博直播 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">多少岁不重要，看起来像几岁オ最重要。不要把辛苦和怨气都挂在脸上，你想要最好的生活，就先让生活，看到最好的你。  叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">要开心过日子不要给别人找麻烦也不要给自己找麻烦开心的好好过日子  叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">开设成都新公司。中字头的国企是投资方（保密）。新公司名称暂定CNB吹牛逼三个月后看新产品发行成功。 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t>昨天下午在太古里偶然遇到一个两年前认识的漂亮妹子，信托行业的，寒暄几句。她说，你记得两年前，你说过的话吗？我愣了一下，靠，两年前我还是低谷期，难道说过啥豪言壮语？我说：当然不记得，太久了。她说：你说你是我认识的朋友当中最有名的一个。我说，哈哈哈，那时你不信吧，现在信了。...全文</t>
-  </si>
-  <si>
-    <t>今天早上成都出发，30个小时的火车。。 去调研几家旅游股。。 看看景区人气如何，上市公司的员工待遇，以及导游的吐槽，景区酒店入住率等等。 因为我们要先知先觉关注旅游股。。暑假快来了，旅游旺季即将开始了。 6月到8月是旅游旺季。学生暑假。 点评：一些漂亮的模特女助理是不会陪我做火车...全文</t>
-  </si>
-  <si>
-    <t>美股市场：美东时间周三，美股三大股指小幅收涨。盘面上，新能源汽车、区块链、银行、航运、大麻、能源、散户抱团概念股普涨，大型科技、芯片、疫苗股涨跌各异。截止收盘，道指收涨10.59点，涨幅为0.03%，报34323.05点；纳指收涨80.83点，报13738.00点，涨幅为0.59%；标普500指数收涨7.86点，报4195.99...全文</t>
-  </si>
-  <si>
-    <t>💭  我们可以把时间浪费在自己喜欢的事情上  但不可以困在自己讨厌的生活方式里 点评：1：这次又来成都，第二次，今年。寻找蒲菲迪，公司她不在。我还会经常来找你的。2：准备开设成都第一家新的公司（新公司的合作方是中字头的国企，具体保密），收购一家私募公司股权，三个月内发行...全文</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下一个要爆发的板块是谁 叶飞私募冠军直说的微博直播 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">五分钟后直播，主题：潜伏下一个爆发的板块 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">今晚，今日头条独家专访。。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">明天它涨停。。代码中有个1。 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">叶飞：卖出稀土建仓旅游又是先知先觉 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t>今天 08:30</t>
-  </si>
-  <si>
-    <t>40分钟前</t>
-  </si>
-  <si>
-    <t>43分钟前</t>
-  </si>
-  <si>
-    <t>45分钟前</t>
-  </si>
-  <si>
-    <t>46分钟前</t>
-  </si>
-  <si>
-    <t>56分钟前</t>
-  </si>
-  <si>
-    <t>今天 12:25</t>
-  </si>
-  <si>
-    <t>今天 12:04</t>
-  </si>
-  <si>
-    <t>今天 11:56</t>
-  </si>
-  <si>
-    <t>今天 11:41</t>
-  </si>
-  <si>
-    <t>今天 11:40</t>
-  </si>
-  <si>
-    <t>今天 11:39</t>
-  </si>
-  <si>
-    <t>今天 11:38</t>
-  </si>
-  <si>
-    <t>今天 11:36</t>
-  </si>
-  <si>
-    <t>今天 11:34</t>
-  </si>
-  <si>
-    <t>今天 11:26</t>
-  </si>
-  <si>
-    <t>今天 11:04</t>
-  </si>
-  <si>
-    <t>今天 09:05</t>
-  </si>
-  <si>
-    <t>今天 09:04</t>
-  </si>
-  <si>
-    <t>今天 09:02</t>
-  </si>
-  <si>
-    <t>今天 09:01</t>
-  </si>
-  <si>
-    <t>今天 08:57</t>
-  </si>
-  <si>
-    <t>今天 08:38</t>
-  </si>
-  <si>
-    <t>今天 08:28</t>
-  </si>
-  <si>
-    <t>今天 08:27</t>
-  </si>
-  <si>
-    <t>今天 08:04</t>
-  </si>
-  <si>
-    <t>今天 07:58</t>
-  </si>
-  <si>
-    <t>今天 07:52</t>
+    <t xml:space="preserve">如何加入我的新浪微博付费阅读。附图！！  散户成功的第二步。 选择决定命运 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0531安徽经济台叶飞股评 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">请不要贸然评价完我请不要 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">妈咪换一批 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">选择决定了命运。 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">如果你不确定 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">命中注定的 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">天大的福气 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">『百万粉网红告诉我她当渣女有多爽』百万粉网红告诉我她当渣女有多爽 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">未来散户投胎的正确打开方式！ 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">分享视频 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">错过的都是在意的 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t>乐基儿和黎明结婚后花了他7.5亿，最终婚内连爆丑闻，离婚后再嫁闺蜜的富豪前夫，成为了豪门贵妇。离婚后，记者说乐基儿像前夫新女友，乐基儿说：“不是更像舒淇吗？”印证了黎明钟爱的始终是一款。乐基儿14岁那年以模特身份出道，而黎明和刘德华、张学友、郭富城，刚刚享有“四大天王”之名两年。...全文</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[cp]我告诉你我喜欢你，并不是一定要和你在一起，而是每当今后，你灰心的时候，都能想起有个人，曾经真正地喜欢过你，陪你走完这段路，我也就……变成你了走过的路，从此人山人海，不负相逢。。。 点评：我曾经追逐过月亮，也沐浴了月光。 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">约不约 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">爆料不举报  叶飞私募冠军直说的微博直播 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">直播开始，主题：爆料不举报 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">还有15分钟到酒店，今天一天的火车站。从七点到23：00点 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">能自己扛，就别声张。 有些压力总是得自己扛过去，说出来就成了充满负能量的抱怨。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">少在乎别人，多取悦自己，自己舒服开心就好。  。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">今天一天都在火车上。。所以直播晚了。。等会下车。。到酒店直播。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">凤凰卫视专访 私募冠军吹哨人叶飞 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">查了一下，关岛总人口16.73万。没错，还没我方圆几公里人数多。祝贺中国男足。继续加油@中国男足@中国足协 @中国足协中国之队 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">今晚直播在24：10之前！主题：爆料美某某！ </t>
+  </si>
+  <si>
+    <t>美某某，是不是有人冒充你的工作人员？是吧，我转载一个文章，惹你了吗？你说删就删？你追诉吧，追杀都行，你算老几？居然和我们安徽人老逼老吊的。。 我就告诉这个所谓的工作人员，我只是转载。。不是原创。。除非 你今天请我所有的有评论的粉丝喝一杯奶茶。。否则坚决不删。我这人，...全文</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有的人好幼稚。。看来是没有经过社会的毒打。。不够成熟。我不是法院检察院，我也不是信访我也不是维护地球正义的超人。别想道德绑架我。更别想害我。至少，得，加钱。。 </t>
+  </si>
+  <si>
+    <t>实名不举报：美某某的庄家勾结公募基金的违法犯罪线索，注意，是线索。注意，是不举报。。案发时间是2020年9月10日前后。内容：我的一个关系不太好欠我钱的朋友，老徐，具体名字不便透露。老徐在去年九月初给我说，美某某的盘方联系到他，让他安排公募参与接货或者代持。说这个票要怎么怎么样...全文</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我是南京大学专升本，数字多媒体专业毕业。初中专是浙江邮电学院绍兴分校  毕业专科函授是 南京邮电学院  计算机通信专业 毕业后来EMBA是北京大学 商业新领袖  结业（EMBA都是结业证书） 还当了三年的中国社会科学院硕士研究生导师。（有聘书）我觉得挺励志的，也算是学霸。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">开心一笑关于老师的段子 </t>
+  </si>
+  <si>
+    <t>转载：这位许亚飞团队牛逼啊！！！近日，又一起金额巨大的股市操纵案被当事人“自爆”，更令人震惊的是，案中有案，操纵团伙甚至巨额行贿社保基金基金经理，参与接盘坐庄牟取暴利，再一次击穿了广大股民的认知底线。由于违法参与方均严格遵守“隔绝”“隔离”等沟通交易方式，不法真相隐藏行业多年...全文</t>
+  </si>
+  <si>
+    <t xml:space="preserve">『想把日子过成诗...』想把日子过成诗... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6月这8个地方千万别去，我怕你忍不住爱上！『6月这8个地方千万别去，我怕你忍不住爱上！』6月这8个地方千万别去，我怕你忍不住爱上！ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">『6月这8个地方千万别去，我怕你忍不住爱上！』6月这8个地方千万别去，我怕你忍不住爱上！ </t>
+  </si>
+  <si>
+    <t>大家聊聊看凤凰卫视，叶飞节目的感受我先说：节目里，只有叶飞和石相杰先生关注散户的亏赚和感受。。其他专家都是高高在上，不在乎散户是否赚钱。也偏离了市值管理的主题，总是在讨论举报人是否违法等等。根本不认真谈谈盘方，上市公司是否违法，接盘的券商投资经理和公募经理是否违法。。而且...全文</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大圣，去那是想要干什么？”踏破南天门，打碎凌霄宝殿”“要是你一去不回…”“就一去不回！ 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">贫困限制了大众的想象力。。 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">发布了头条文章：《叶飞：稀土卖出继续加仓商业和旅游！》 @人脉爸爸 @微博视频 叶飞：稀土卖出继续加仓商业和旅游！ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">《叶飞事件引发余震持续，自爆"案中案"社保基金"行贿门"揭秘(转载)》基于全球华人内容创作、知识分享与兴趣的社区平台http://t.cn/A6VKjsui </t>
+  </si>
+  <si>
+    <t xml:space="preserve">哈哈哈，不要买盗版书。。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">真牛逼的人特别会装逼 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">大家聊聊看过一虎一席谈，叶飞节目的感受我先说：节目里，只有叶飞和石相杰先生关注散户的亏赚和感受。。其他专家都是高高在上，不在乎散户是否赚钱。也偏离了市值管理的主题，总是在讨论举报人是否违法等等。根本不认真谈谈盘方，上市公司是否违法，接盘的券商投资经理和公募经理是否违法。。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我也是南京大学毕业的本科。哈哈 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">正在重播，凤凰卫视中文台。下载  凤凰秀，选择直播。电视。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">要有格局 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">最终还是踏上了叙  利  亚的征程。相比于生活的压力，我还是选择相信A  K   的后座力！你看，女朋友送的包包多重要，它在那么多包中，就像萤火虫在黑夜里一样闪闪发光。。怪不得，都说，包治百病。。如果这个时候你发信息给我说“我要买翡翠，我觉得我还能回头。” 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">吕良伟：'犯的什么?黑  社会?'犯人：'我不是黑  社会啊'吕良伟：'不是?那就跟我啊'吕良伟：'来,叫声渣哥''叫啊!'犯人：'渣哥' 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">火车上无聊，抖音和大家聊聊。直播，抖音直播。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">为什么男人爱抽烟？以前我没有烟瘾，只是陪朋友和客户，酒后抽一抽。。也不进肺。现在我天天抽几根，也不进肺。原来烟雾缭绕的感觉 可以释放一些压力。 </t>
+  </si>
+  <si>
+    <t>The real treasure is not this, only life is priceless, live every day wonderfully真正的宝藏不是这个,只有生命是无价的,精彩地去活每一天.点评：好多年了，你还记得谁陪你看这部电影吗？该片于1997年12月19日在美国上映，1998年4月3日在中国内地上映，2012年4月10日以3D版在中国内地重映最...全文</t>
+  </si>
+  <si>
+    <t xml:space="preserve">什么是高手 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">不要老是问我有没有钱。我的钱怎么来的，你清清楚楚，我的钱怎么没的，你迷迷糊糊。我就和你不一样。我的钱怎么来的，我清清楚楚，我的钱怎么没的，我迷迷糊糊。 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">如果你不喝酒，把喝酒的钱存到了银行，银行会把钱借给别人。别人会用你的钱去追你喜欢的女人，泡到了本该属于你的女朋友。。 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">既然不是仙，难免有杂念。 昨晚的凤凰卫视节目，今天13：00重播 http://t.cn/A6VogNuG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6月1日凌晨，即可开放新粉丝关注。。只做稳健选股方法交流，还有涨停板敢死队战法交流。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">能看到吗？『http://t.cn/A6VKP6ZJ』http://t.cn/A6VKP6ZJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">无意中扫到关于成功的视频，觉得，普通人成功是很难的。特别是像我们这样的草根。。所以，做大事，讲究天时地利人和。感谢大家的支持。 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">下载  凤凰秀看回放。很多专家都无法对中国散户的悲催命运感同身受，而是轻描淡写的评头论足。 我是95年学习股票，99年两万块炒股起家，散户出身。特别理解散户的痛苦。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">哈哈哈，周日13：00凤凰卫视中文台重播 </t>
+  </si>
+  <si>
+    <t>今天 06:56</t>
+  </si>
+  <si>
+    <t>今天 09:22</t>
+  </si>
+  <si>
+    <t>今天 09:10</t>
+  </si>
+  <si>
+    <t>今天 09:09</t>
+  </si>
+  <si>
+    <t>今天 08:49</t>
+  </si>
+  <si>
+    <t>今天 08:34</t>
   </si>
   <si>
     <t>今天 07:28</t>
   </si>
   <si>
-    <t>今天 07:15</t>
-  </si>
-  <si>
-    <t>今天 07:14</t>
-  </si>
-  <si>
-    <t>今天 07:00</t>
+    <t>今天 07:26</t>
+  </si>
+  <si>
+    <t>今天 07:16</t>
+  </si>
+  <si>
+    <t>今天 07:03</t>
   </si>
   <si>
     <t>今天 06:51</t>
   </si>
   <si>
-    <t>今天 06:20</t>
-  </si>
-  <si>
-    <t>今天 04:44</t>
-  </si>
-  <si>
-    <t>今天 04:42</t>
-  </si>
-  <si>
-    <t>今天 04:34</t>
-  </si>
-  <si>
-    <t>今天 04:33</t>
-  </si>
-  <si>
-    <t>今天 04:27</t>
-  </si>
-  <si>
-    <t>今天 04:15</t>
-  </si>
-  <si>
-    <t>今天 04:03</t>
-  </si>
-  <si>
-    <t>今天 03:29</t>
-  </si>
-  <si>
-    <t>05月27日 21:37</t>
-  </si>
-  <si>
-    <t>05月27日 21:10</t>
-  </si>
-  <si>
-    <t>05月27日 20:41</t>
-  </si>
-  <si>
-    <t>05月27日 20:38</t>
-  </si>
-  <si>
-    <t>05月27日 19:04</t>
-  </si>
-  <si>
-    <t>05月27日 19:01</t>
-  </si>
-  <si>
-    <t>05月27日 18:55</t>
-  </si>
-  <si>
-    <t>05月27日 18:45</t>
-  </si>
-  <si>
-    <t>05月27日 17:20</t>
-  </si>
-  <si>
-    <t>05月27日 17:14</t>
-  </si>
-  <si>
-    <t>05月27日 16:49</t>
-  </si>
-  <si>
-    <t>05月27日 15:56</t>
-  </si>
-  <si>
-    <t>05月27日 15:11</t>
-  </si>
-  <si>
-    <t>05月27日 14:11</t>
-  </si>
-  <si>
-    <t>05月27日 13:43</t>
-  </si>
-  <si>
-    <t>05月27日 13:12</t>
-  </si>
-  <si>
-    <t>05月27日 12:42</t>
-  </si>
-  <si>
-    <t>05月27日 12:31</t>
-  </si>
-  <si>
-    <t>05月27日 12:27</t>
-  </si>
-  <si>
-    <t>05月27日 12:25</t>
-  </si>
-  <si>
-    <t>05月27日 11:09</t>
-  </si>
-  <si>
-    <t>05月27日 11:02</t>
-  </si>
-  <si>
-    <t>05月27日 10:52</t>
-  </si>
-  <si>
-    <t>05月27日 09:42</t>
-  </si>
-  <si>
-    <t>05月27日 09:29</t>
-  </si>
-  <si>
-    <t>05月27日 09:17</t>
-  </si>
-  <si>
-    <t>05月27日 09:02</t>
-  </si>
-  <si>
-    <t>05月27日 08:59</t>
-  </si>
-  <si>
-    <t>05月27日 08:51</t>
-  </si>
-  <si>
-    <t>05月27日 08:45</t>
-  </si>
-  <si>
-    <t>05月27日 08:44</t>
-  </si>
-  <si>
-    <t>05月27日 08:43</t>
-  </si>
-  <si>
-    <t>05月27日 08:39</t>
-  </si>
-  <si>
-    <t>05月27日 08:38</t>
-  </si>
-  <si>
-    <t>05月27日 08:36</t>
-  </si>
-  <si>
-    <t>05月27日 08:35</t>
-  </si>
-  <si>
-    <t>05月27日 08:30</t>
-  </si>
-  <si>
-    <t>05月27日 08:14</t>
-  </si>
-  <si>
-    <t>05月27日 08:07</t>
-  </si>
-  <si>
-    <t>05月27日 08:06</t>
-  </si>
-  <si>
-    <t>05月27日 06:52</t>
-  </si>
-  <si>
-    <t>05月27日 06:42</t>
-  </si>
-  <si>
-    <t>05月27日 06:09</t>
-  </si>
-  <si>
-    <t>05月27日 05:14</t>
-  </si>
-  <si>
-    <t>05月27日 04:56</t>
-  </si>
-  <si>
-    <t>05月26日 20:44</t>
-  </si>
-  <si>
-    <t>05月26日 20:43</t>
-  </si>
-  <si>
-    <t>05月26日 18:58</t>
-  </si>
-  <si>
-    <t>05月26日 16:43</t>
-  </si>
-  <si>
-    <t>05月26日 16:41</t>
-  </si>
-  <si>
-    <t>05月26日 16:40</t>
-  </si>
-  <si>
-    <t>05月26日 16:38</t>
+    <t>今天 06:50</t>
+  </si>
+  <si>
+    <t>今天 06:40</t>
+  </si>
+  <si>
+    <t>今天 06:04</t>
+  </si>
+  <si>
+    <t>今天 06:01</t>
+  </si>
+  <si>
+    <t>今天 05:28</t>
+  </si>
+  <si>
+    <t>今天 01:31</t>
+  </si>
+  <si>
+    <t>今天 01:29</t>
+  </si>
+  <si>
+    <t>今天 00:31</t>
+  </si>
+  <si>
+    <t>今天 00:30</t>
+  </si>
+  <si>
+    <t>今天 00:23</t>
+  </si>
+  <si>
+    <t>今天 00:02</t>
+  </si>
+  <si>
+    <t>05月30日 23:58</t>
+  </si>
+  <si>
+    <t>05月30日 23:29</t>
+  </si>
+  <si>
+    <t>05月30日 23:14</t>
+  </si>
+  <si>
+    <t>05月30日 23:08</t>
+  </si>
+  <si>
+    <t>05月30日 21:45</t>
+  </si>
+  <si>
+    <t>05月30日 21:23</t>
+  </si>
+  <si>
+    <t>05月30日 21:21</t>
+  </si>
+  <si>
+    <t>05月30日 21:19</t>
+  </si>
+  <si>
+    <t>05月30日 21:04</t>
+  </si>
+  <si>
+    <t>05月30日 20:19</t>
+  </si>
+  <si>
+    <t>05月30日 20:06</t>
+  </si>
+  <si>
+    <t>05月30日 20:03</t>
+  </si>
+  <si>
+    <t>05月30日 19:38</t>
+  </si>
+  <si>
+    <t>05月30日 19:32</t>
+  </si>
+  <si>
+    <t>05月30日 19:31</t>
+  </si>
+  <si>
+    <t>05月30日 19:27</t>
+  </si>
+  <si>
+    <t>05月30日 19:26</t>
+  </si>
+  <si>
+    <t>05月30日 19:25</t>
+  </si>
+  <si>
+    <t>05月30日 19:22</t>
+  </si>
+  <si>
+    <t>05月30日 19:06</t>
+  </si>
+  <si>
+    <t>05月30日 18:57</t>
+  </si>
+  <si>
+    <t>05月30日 18:55</t>
+  </si>
+  <si>
+    <t>05月30日 18:35</t>
+  </si>
+  <si>
+    <t>05月30日 18:33</t>
+  </si>
+  <si>
+    <t>05月30日 18:29</t>
+  </si>
+  <si>
+    <t>05月30日 18:24</t>
+  </si>
+  <si>
+    <t>05月30日 18:20</t>
+  </si>
+  <si>
+    <t>05月30日 18:14</t>
+  </si>
+  <si>
+    <t>05月30日 17:55</t>
+  </si>
+  <si>
+    <t>05月30日 17:49</t>
+  </si>
+  <si>
+    <t>05月30日 17:39</t>
+  </si>
+  <si>
+    <t>05月30日 17:38</t>
+  </si>
+  <si>
+    <t>05月30日 17:19</t>
+  </si>
+  <si>
+    <t>05月30日 17:12</t>
+  </si>
+  <si>
+    <t>05月30日 17:02</t>
+  </si>
+  <si>
+    <t>05月30日 17:00</t>
+  </si>
+  <si>
+    <t>05月30日 16:59</t>
+  </si>
+  <si>
+    <t>05月30日 16:58</t>
+  </si>
+  <si>
+    <t>05月30日 16:55</t>
+  </si>
+  <si>
+    <t>05月30日 16:51</t>
+  </si>
+  <si>
+    <t>05月30日 16:49</t>
+  </si>
+  <si>
+    <t>05月30日 16:48</t>
+  </si>
+  <si>
+    <t>05月30日 16:44</t>
+  </si>
+  <si>
+    <t>05月30日 16:43</t>
+  </si>
+  <si>
+    <t>05月30日 16:42</t>
+  </si>
+  <si>
+    <t>05月30日 16:33</t>
+  </si>
+  <si>
+    <t>05月30日 16:30</t>
+  </si>
+  <si>
+    <t>05月30日 16:28</t>
+  </si>
+  <si>
+    <t>05月30日 16:27</t>
+  </si>
+  <si>
+    <t>05月30日 16:11</t>
+  </si>
+  <si>
+    <t>05月30日 16:06</t>
+  </si>
+  <si>
+    <t>05月30日 16:05</t>
+  </si>
+  <si>
+    <t>05月30日 15:59</t>
+  </si>
+  <si>
+    <t>05月30日 15:49</t>
+  </si>
+  <si>
+    <t>05月30日 13:04</t>
+  </si>
+  <si>
+    <t>05月30日 12:47</t>
+  </si>
+  <si>
+    <t>05月30日 12:39</t>
+  </si>
+  <si>
+    <t>05月30日 12:29</t>
+  </si>
+  <si>
+    <t>05月30日 11:28</t>
+  </si>
+  <si>
+    <t>05月30日 11:23</t>
+  </si>
+  <si>
+    <t>05月30日 11:21</t>
+  </si>
+  <si>
+    <t>05月30日 10:39</t>
+  </si>
+  <si>
+    <t>05月30日 10:04</t>
+  </si>
+  <si>
+    <t>05月30日 09:54</t>
+  </si>
+  <si>
+    <t>05月30日 09:39</t>
+  </si>
+  <si>
+    <t>05月30日 09:28</t>
+  </si>
+  <si>
+    <t>05月30日 08:38</t>
+  </si>
+  <si>
+    <t>05月30日 08:33</t>
+  </si>
+  <si>
+    <t>05月30日 08:18</t>
+  </si>
+  <si>
+    <t>05月30日 07:58</t>
+  </si>
+  <si>
+    <t>05月30日 07:56</t>
+  </si>
+  <si>
+    <t>05月30日 07:52</t>
+  </si>
+  <si>
+    <t>05月30日 07:17</t>
+  </si>
+  <si>
+    <t>05月30日 06:53</t>
+  </si>
+  <si>
+    <t>05月30日 06:00</t>
+  </si>
+  <si>
+    <t>05月30日 05:50</t>
+  </si>
+  <si>
+    <t>来自HUAWEI Mate 20 X</t>
   </si>
   <si>
     <t>来自微博视频号</t>
   </si>
   <si>
-    <t>来自HUAWEI Mate 20 X</t>
-  </si>
-  <si>
-    <t>来自微博 weibo.com</t>
-  </si>
-  <si>
-    <t>来自微博直播平台</t>
-  </si>
-  <si>
     <t>来自微博直播</t>
   </si>
   <si>
-    <t>来自微博群聊</t>
+    <t>来自百度App</t>
   </si>
 </sst>
 </file>
@@ -884,7 +872,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -918,19 +906,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -938,759 +926,759 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="B16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>571</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E17">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C20">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>33</v>
+        <v>294</v>
       </c>
       <c r="F20" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C21">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C23">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C24">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E24">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C25">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C26">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G26" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G27" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C28">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E28">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G28" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C29">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G29" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C30">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G30" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C31">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E31">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="F31" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G31" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C32">
-        <v>33</v>
+        <v>370</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="E32">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="F32" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G32" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C33">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E33">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G33" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C34">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G34" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C35">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G35" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G36" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C37">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G37" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C38">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C39">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G39" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C40">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D40">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E40">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G40" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="2:7">
@@ -1698,399 +1686,399 @@
         <v>31</v>
       </c>
       <c r="C41">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
         <v>1</v>
       </c>
-      <c r="E41">
-        <v>13</v>
-      </c>
       <c r="F41" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G41" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C42">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D42">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E42">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C43">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F43" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G43" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C44">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G44" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C45">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="D45">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G45" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C46">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G46" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C47">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>386</v>
+        <v>3</v>
       </c>
       <c r="F47" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G47" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C48">
-        <v>34</v>
+        <v>397</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E48">
-        <v>9</v>
+        <v>451</v>
       </c>
       <c r="F48" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G48" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C49">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="D49">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G49" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C50">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="D50">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E50">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F50" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E51">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F51" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G51" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D52">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G52" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C53">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G53" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="2:7">
       <c r="B54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C54">
-        <v>343</v>
+        <v>76</v>
       </c>
       <c r="D54">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="E54">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="2:7">
       <c r="B55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C55">
-        <v>244</v>
+        <v>25</v>
       </c>
       <c r="D55">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="F55" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G55" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="2:7">
       <c r="B56" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C56">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F56" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G56" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="2:7">
       <c r="B57" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C57">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="D57">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G57" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="2:7">
       <c r="B58" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C58">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E58">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F58" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G58" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="2:7">
       <c r="B59" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C59">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F59" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G59" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="2:7">
       <c r="B60" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C60">
+        <v>852</v>
+      </c>
+      <c r="D60">
+        <v>562</v>
+      </c>
+      <c r="E60">
+        <v>241</v>
+      </c>
+      <c r="F60" t="s">
         <v>121</v>
       </c>
-      <c r="D60">
-        <v>7</v>
-      </c>
-      <c r="E60">
-        <v>62</v>
-      </c>
-      <c r="F60" t="s">
-        <v>128</v>
-      </c>
       <c r="G60" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="2:7">
@@ -2098,76 +2086,76 @@
         <v>43</v>
       </c>
       <c r="C61">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F61" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G61" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="2:7">
       <c r="B62" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C62">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="E62">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="F62" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G62" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="2:7">
       <c r="B63" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C63">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E63">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G63" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C64">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E64">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="F64" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G64" t="s">
         <v>166</v>
@@ -2175,702 +2163,742 @@
     </row>
     <row r="65" spans="2:7">
       <c r="B65" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C65">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F65" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G65" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="2:7">
       <c r="B66" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C66">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G66" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="2:7">
       <c r="B67" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C67">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="D67">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G67" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C68">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D68">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G68" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="2:7">
       <c r="B69" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C69">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D69">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E69">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G69" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="2:7">
       <c r="B70" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C70">
-        <v>418</v>
+        <v>9</v>
       </c>
       <c r="D70">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G70" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="2:7">
       <c r="B71" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C71">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="D71">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E71">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F71" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G71" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="2:7">
       <c r="B72" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C72">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="D72">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="E72">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G72" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="2:7">
       <c r="B73" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C73">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F73" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G73" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="2:7">
       <c r="B74" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C74">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="D74">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F74" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G74" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="2:7">
       <c r="B75" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C75">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E75">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="F75" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G75" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="2:7">
       <c r="B76" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C76">
+        <v>219</v>
+      </c>
+      <c r="D76">
         <v>23</v>
       </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
       <c r="E76">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="F76" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G76" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="2:7">
       <c r="B77" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C77">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F77" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G77" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="2:7">
       <c r="B78" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C78">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G78" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="2:7">
       <c r="B79" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C79">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
         <v>3</v>
       </c>
-      <c r="E79">
-        <v>4</v>
-      </c>
       <c r="F79" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G79" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="2:7">
       <c r="B80" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C80">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="D80">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E80">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G80" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C81">
+        <v>160</v>
+      </c>
+      <c r="D81">
         <v>66</v>
       </c>
-      <c r="D81">
-        <v>9</v>
-      </c>
       <c r="E81">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F81" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G81" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="2:7">
       <c r="B82" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C82">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="E82">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F82" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83" spans="2:7">
       <c r="B83" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C83">
-        <v>29</v>
+        <v>223</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="E83">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="F83" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="2:7">
       <c r="B84" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C84">
         <v>43</v>
       </c>
       <c r="D84">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E84">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F84" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G84" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="2:7">
       <c r="B85" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C85">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E85">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F85" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="2:7">
       <c r="B86" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C86">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D86">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E86">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F86" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G86" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" spans="2:7">
       <c r="B87" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C87">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G87" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="2:7">
       <c r="B88" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C88">
-        <v>198</v>
+        <v>43</v>
       </c>
       <c r="D88">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E88">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="F88" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G88" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="2:7">
       <c r="B89" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C89">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E89">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="F89" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G89" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="2:7">
       <c r="B90" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C90">
-        <v>206</v>
+        <v>92</v>
       </c>
       <c r="D90">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E90">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="F90" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G90" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="2:7">
       <c r="B91" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C91">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="D91">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E91">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F91" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G91" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="2:7">
       <c r="B92" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C92">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D92">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E92">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F92" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G92" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="93" spans="2:7">
       <c r="B93" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C93">
-        <v>440</v>
+        <v>79</v>
       </c>
       <c r="D93">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E93">
-        <v>942</v>
+        <v>26</v>
       </c>
       <c r="F93" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G93" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="2:7">
       <c r="B94" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C94">
-        <v>228</v>
+        <v>86</v>
       </c>
       <c r="D94">
         <v>3</v>
       </c>
       <c r="E94">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="F94" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G94" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="2:7">
       <c r="B95" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C95">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="D95">
         <v>4</v>
       </c>
       <c r="E95">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F95" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G95" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="2:7">
       <c r="B96" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C96">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D96">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E96">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F96" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G96" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97" spans="2:7">
       <c r="B97" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C97">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E97">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F97" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G97" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="98" spans="2:7">
       <c r="B98" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C98">
-        <v>54</v>
+        <v>378</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>333</v>
       </c>
       <c r="E98">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="F98" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G98" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="99" spans="2:7">
       <c r="B99" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C99">
+        <v>83</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+      <c r="E99">
+        <v>28</v>
+      </c>
+      <c r="F99" t="s">
+        <v>160</v>
+      </c>
+      <c r="G99" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" t="s">
+        <v>59</v>
+      </c>
+      <c r="C100">
+        <v>71</v>
+      </c>
+      <c r="D100">
+        <v>14</v>
+      </c>
+      <c r="E100">
+        <v>22</v>
+      </c>
+      <c r="F100" t="s">
+        <v>161</v>
+      </c>
+      <c r="G100" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" t="s">
+        <v>64</v>
+      </c>
+      <c r="C101">
         <v>32</v>
       </c>
-      <c r="D99">
-        <v>2</v>
-      </c>
-      <c r="E99">
-        <v>12</v>
-      </c>
-      <c r="F99" t="s">
-        <v>164</v>
-      </c>
-      <c r="G99" t="s">
-        <v>167</v>
+      <c r="D101">
+        <v>4</v>
+      </c>
+      <c r="E101">
+        <v>6</v>
+      </c>
+      <c r="F101" t="s">
+        <v>162</v>
+      </c>
+      <c r="G101" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/web/weibo.xlsx
+++ b/web/weibo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="153">
   <si>
     <t>用户</t>
   </si>
@@ -37,232 +37,301 @@
     <t>来源</t>
   </si>
   <si>
-    <t xml:space="preserve">如何加入我的新浪微博付费阅读。附图！！  散户成功的第二步。 选择决定命运 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0531安徽经济台叶飞股评 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">请不要贸然评价完我请不要 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">妈咪换一批 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">选择决定了命运。 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">如果你不确定 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">命中注定的 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">天大的福气 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">『百万粉网红告诉我她当渣女有多爽』百万粉网红告诉我她当渣女有多爽 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">未来散户投胎的正确打开方式！ 叶飞私募冠军直说的微博视频 </t>
+    <t>2021年暑期大片震撼来袭！！片名:腾NM的Dragon ！中文名:你妈妈的龙！导演：范伟主要演员：蒋学真，董晓燕，范伟，蒋依琳客串演员：叶飞 徐某某武术指导：略床戏指导：自学编剧：董晓燕 范伟群众演员：141万叶飞的新浪粉丝  不明数量的抖音粉丝特定演出剧场：新浪微博叶飞私募冠军直说，抖...全文</t>
+  </si>
+  <si>
+    <t xml:space="preserve">好的心态才能配得上涨停股。看看历史经验，M头战法 叶飞私募冠军直说的微博直播 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0625财达涨停你知道吗？ 叶飞私募冠军直说的微博直播 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">做我的学员，是你股票人生的一次重大转折点。古人云：世有伯乐，然后有千里马。千里马常有，而伯乐不常有。故虽有名马，祗辱于奴隶人之手，骈死于槽枥之间，不以千里称也。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">老将出马，一个顶俩点评：学员班第九只股票三天涨停回顾。目前已经八连胜。第八只股票持股未卖。第九只涨停准备未来几日卖出。黑粉在哪，快来黑我，别错过机会哦。来，说我造假。。 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">八一钢铁午后直线拉升封板，重庆钢铁、太钢不锈、马钢股份、本钢板材等涨逾5%。点评：钢铁我们关注比较少。 </t>
+  </si>
+  <si>
+    <t>6月25日讯，安徽省人民政府省长王清宪近日前往古井集团调研，王清宪一行人先后参观了古井集团中国白酒科普馆、无极酒窖、成品灌装车间、产品展示中心，调研了解古井科技创新、原酒储存等生产经营情况。王清宪对古井集团近年来取得的成绩给予了肯定，勉励古井加强产品研发、市场开拓、品牌打造，乘势而...全文</t>
+  </si>
+  <si>
+    <t xml:space="preserve">厦门银行午后秒板，重庆银行、青岛银行、南京银行、青农商行等纷纷跟涨，齐鲁银行上市开板后4连板。点评:每次反弹都是次新金融。 </t>
+  </si>
+  <si>
+    <t>【午评：创业板指涨1.48% 大金融发力券商股领涨】6月25日讯，大小指数早盘反弹，券商、银行等大金融发力沪指涨0.79%，两市个股涨少跌多，题材高低切换。券商板块飘红，中银证券两连板，锦龙股份、财达证券涨停，东方财富大涨超7%，光伏板块继续大涨，光伏建筑一体化领涨，科技股延续回调，鸿蒙概念、国...全文</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#东方财富#有色产业景气度创六年新高 产业链全面提价（附股）铜价创历史纪录！有色产业景气度创六年新高 产业链全面提价（附股）东方财富 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">昨晚刚搬家，炮声一响，就知道财达今天涨停！看来新家风水不错今晚继续开炮 五分钟后直播 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:34【快讯：军工股开盘走低】6月25日讯，江龙船艇、中航沈飞跌近4%，新余国科、国瑞科技、晨曦航空、航天彩虹等跌超3%。09:31【快讯：煤炭板块开盘走强】6月25日讯，美锦能源一字板，新集能源、昊华能源、中煤能源、淮北矿业等冲高。点评：军工有难度。煤炭看看即可。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:03【快讯：券商股盘中快速走高】6月25日讯，锦龙股份率先封涨停，中银证券大涨7%，次新股财达证券大涨4%。点评:符合预测。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【快讯：半导体芯片股大幅回落】6月25日讯，上海贝岭、聚灿光电、民德电子跌超7%，申通地铁、景嘉微、澄天伟业、士兰微、兆易创新等跌超3%。点评：见顶快了。 </t>
+  </si>
+  <si>
+    <t>6月25日讯，近日，产业司副司长、一级巡视员李忠娟同志主持召开上半年服务业发展形势分析座谈会。会上，中国机械工业联合会、中国检验检测学会、中国科技咨询协会、中华全国商业信息中心、中国工业设计协会、中国消费者协会、美团、顺丰、中青旅、王府井百货等协会和企业分别介绍了今年以来所属行业领...全文</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上交所半年报预约披露时间表出炉，ST龙韵拔得头筹，将于7月16日率先披露。此外，西部矿业将于7月17日披露，健民集团、梅花生物、明微电子、江泉实业将于7月20日披露。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">私募预约还是开业典礼还是8800线下培训课预约，留下电话姓名即可 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0625安徽经济台叶飞股评 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t>11:32【午评：创业板指涨1.48% 大金融发力券商股领涨】6月25日讯，大小指数早盘反弹，券商、银行等大金融发力沪指涨0.79%，两市个股涨少跌多，题材高低切换。券商板块飘红，中银证券两连板，锦龙股份、财达证券涨停，东方财富大涨超7%，光伏板块继续大涨，光伏建筑一体化领涨，科技股延续回调，鸿蒙概...全文</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6月22日提示关注券商，明确！ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">太阳出来我爬山坡爬到了山顶我想唱歌歌声飘给我妹妹听啊听到我歌声她笑呵呵春天里那个百花鲜我和那妹妹啊把手牵又到了山顶我走一遍啊点评：就问你服不服！抖音直播，昨天的涨停密码。。这一周的收盘分析，上周的收盘分析。。还有谁说我是这个股的托？哈哈哈 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">昨天晚上称体重。。瘦了两斤！现在199斤 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">在我到酒店之前，乌拉圭不许进球。。倒计时20分钟。。五点比赛开始。昨天搬家，电视没信号。朋友开了房间，去酒店看 </t>
   </si>
   <si>
     <t xml:space="preserve">分享视频 叶飞私募冠军直说的微博视频 </t>
   </si>
   <si>
-    <t xml:space="preserve">错过的都是在意的 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t>乐基儿和黎明结婚后花了他7.5亿，最终婚内连爆丑闻，离婚后再嫁闺蜜的富豪前夫，成为了豪门贵妇。离婚后，记者说乐基儿像前夫新女友，乐基儿说：“不是更像舒淇吗？”印证了黎明钟爱的始终是一款。乐基儿14岁那年以模特身份出道，而黎明和刘德华、张学友、郭富城，刚刚享有“四大天王”之名两年。...全文</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[cp]我告诉你我喜欢你，并不是一定要和你在一起，而是每当今后，你灰心的时候，都能想起有个人，曾经真正地喜欢过你，陪你走完这段路，我也就……变成你了走过的路，从此人山人海，不负相逢。。。 点评：我曾经追逐过月亮，也沐浴了月光。 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">约不约 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">爆料不举报  叶飞私募冠军直说的微博直播 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">直播开始，主题：爆料不举报 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">还有15分钟到酒店，今天一天的火车站。从七点到23：00点 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">能自己扛，就别声张。 有些压力总是得自己扛过去，说出来就成了充满负能量的抱怨。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">少在乎别人，多取悦自己，自己舒服开心就好。  。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">今天一天都在火车上。。所以直播晚了。。等会下车。。到酒店直播。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">凤凰卫视专访 私募冠军吹哨人叶飞 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">查了一下，关岛总人口16.73万。没错，还没我方圆几公里人数多。祝贺中国男足。继续加油@中国男足@中国足协 @中国足协中国之队 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">今晚直播在24：10之前！主题：爆料美某某！ </t>
-  </si>
-  <si>
-    <t>美某某，是不是有人冒充你的工作人员？是吧，我转载一个文章，惹你了吗？你说删就删？你追诉吧，追杀都行，你算老几？居然和我们安徽人老逼老吊的。。 我就告诉这个所谓的工作人员，我只是转载。。不是原创。。除非 你今天请我所有的有评论的粉丝喝一杯奶茶。。否则坚决不删。我这人，...全文</t>
-  </si>
-  <si>
-    <t xml:space="preserve">有的人好幼稚。。看来是没有经过社会的毒打。。不够成熟。我不是法院检察院，我也不是信访我也不是维护地球正义的超人。别想道德绑架我。更别想害我。至少，得，加钱。。 </t>
-  </si>
-  <si>
-    <t>实名不举报：美某某的庄家勾结公募基金的违法犯罪线索，注意，是线索。注意，是不举报。。案发时间是2020年9月10日前后。内容：我的一个关系不太好欠我钱的朋友，老徐，具体名字不便透露。老徐在去年九月初给我说，美某某的盘方联系到他，让他安排公募参与接货或者代持。说这个票要怎么怎么样...全文</t>
-  </si>
-  <si>
-    <t xml:space="preserve">我是南京大学专升本，数字多媒体专业毕业。初中专是浙江邮电学院绍兴分校  毕业专科函授是 南京邮电学院  计算机通信专业 毕业后来EMBA是北京大学 商业新领袖  结业（EMBA都是结业证书） 还当了三年的中国社会科学院硕士研究生导师。（有聘书）我觉得挺励志的，也算是学霸。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">开心一笑关于老师的段子 </t>
-  </si>
-  <si>
-    <t>转载：这位许亚飞团队牛逼啊！！！近日，又一起金额巨大的股市操纵案被当事人“自爆”，更令人震惊的是，案中有案，操纵团伙甚至巨额行贿社保基金基金经理，参与接盘坐庄牟取暴利，再一次击穿了广大股民的认知底线。由于违法参与方均严格遵守“隔绝”“隔离”等沟通交易方式，不法真相隐藏行业多年...全文</t>
-  </si>
-  <si>
-    <t xml:space="preserve">『想把日子过成诗...』想把日子过成诗... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6月这8个地方千万别去，我怕你忍不住爱上！『6月这8个地方千万别去，我怕你忍不住爱上！』6月这8个地方千万别去，我怕你忍不住爱上！ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">『6月这8个地方千万别去，我怕你忍不住爱上！』6月这8个地方千万别去，我怕你忍不住爱上！ </t>
-  </si>
-  <si>
-    <t>大家聊聊看凤凰卫视，叶飞节目的感受我先说：节目里，只有叶飞和石相杰先生关注散户的亏赚和感受。。其他专家都是高高在上，不在乎散户是否赚钱。也偏离了市值管理的主题，总是在讨论举报人是否违法等等。根本不认真谈谈盘方，上市公司是否违法，接盘的券商投资经理和公募经理是否违法。。而且...全文</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大圣，去那是想要干什么？”踏破南天门，打碎凌霄宝殿”“要是你一去不回…”“就一去不回！ 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">贫困限制了大众的想象力。。 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">发布了头条文章：《叶飞：稀土卖出继续加仓商业和旅游！》 @人脉爸爸 @微博视频 叶飞：稀土卖出继续加仓商业和旅游！ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">《叶飞事件引发余震持续，自爆"案中案"社保基金"行贿门"揭秘(转载)》基于全球华人内容创作、知识分享与兴趣的社区平台http://t.cn/A6VKjsui </t>
-  </si>
-  <si>
-    <t xml:space="preserve">哈哈哈，不要买盗版书。。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">真牛逼的人特别会装逼 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">大家聊聊看过一虎一席谈，叶飞节目的感受我先说：节目里，只有叶飞和石相杰先生关注散户的亏赚和感受。。其他专家都是高高在上，不在乎散户是否赚钱。也偏离了市值管理的主题，总是在讨论举报人是否违法等等。根本不认真谈谈盘方，上市公司是否违法，接盘的券商投资经理和公募经理是否违法。。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">我也是南京大学毕业的本科。哈哈 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">正在重播，凤凰卫视中文台。下载  凤凰秀，选择直播。电视。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">要有格局 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">最终还是踏上了叙  利  亚的征程。相比于生活的压力，我还是选择相信A  K   的后座力！你看，女朋友送的包包多重要，它在那么多包中，就像萤火虫在黑夜里一样闪闪发光。。怪不得，都说，包治百病。。如果这个时候你发信息给我说“我要买翡翠，我觉得我还能回头。” 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">吕良伟：'犯的什么?黑  社会?'犯人：'我不是黑  社会啊'吕良伟：'不是?那就跟我啊'吕良伟：'来,叫声渣哥''叫啊!'犯人：'渣哥' 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">火车上无聊，抖音和大家聊聊。直播，抖音直播。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">为什么男人爱抽烟？以前我没有烟瘾，只是陪朋友和客户，酒后抽一抽。。也不进肺。现在我天天抽几根，也不进肺。原来烟雾缭绕的感觉 可以释放一些压力。 </t>
-  </si>
-  <si>
-    <t>The real treasure is not this, only life is priceless, live every day wonderfully真正的宝藏不是这个,只有生命是无价的,精彩地去活每一天.点评：好多年了，你还记得谁陪你看这部电影吗？该片于1997年12月19日在美国上映，1998年4月3日在中国内地上映，2012年4月10日以3D版在中国内地重映最...全文</t>
-  </si>
-  <si>
-    <t xml:space="preserve">什么是高手 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">不要老是问我有没有钱。我的钱怎么来的，你清清楚楚，我的钱怎么没的，你迷迷糊糊。我就和你不一样。我的钱怎么来的，我清清楚楚，我的钱怎么没的，我迷迷糊糊。 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">如果你不喝酒，把喝酒的钱存到了银行，银行会把钱借给别人。别人会用你的钱去追你喜欢的女人，泡到了本该属于你的女朋友。。 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">既然不是仙，难免有杂念。 昨晚的凤凰卫视节目，今天13：00重播 http://t.cn/A6VogNuG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6月1日凌晨，即可开放新粉丝关注。。只做稳健选股方法交流，还有涨停板敢死队战法交流。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">能看到吗？『http://t.cn/A6VKP6ZJ』http://t.cn/A6VKP6ZJ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">无意中扫到关于成功的视频，觉得，普通人成功是很难的。特别是像我们这样的草根。。所以，做大事，讲究天时地利人和。感谢大家的支持。 叶飞私募冠军直说的微博视频 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">下载  凤凰秀看回放。很多专家都无法对中国散户的悲催命运感同身受，而是轻描淡写的评头论足。 我是95年学习股票，99年两万块炒股起家，散户出身。特别理解散户的痛苦。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">哈哈哈，周日13：00凤凰卫视中文台重播 </t>
-  </si>
-  <si>
-    <t>今天 06:56</t>
+    <t xml:space="preserve">你就是飘飘 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">我命由我不由天 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">聊会抖音？看看美洲杯？ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">美东时间周四，美国股市三大指数集体上涨，纳指与标普创历史新高。截至发稿，道指上涨1.01%，纳指上涨0.45%，标普500指数上涨0.54%。点评：TQQQ，前几日提示110元买入。今天117。持股，等130。美股。。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">接着奏乐接着舞 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">叶飞：下周大盘变盘！ 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">发布了头条文章：《叶飞：券商股要王者归来！》 @人脉爸爸 @微博视频 叶飞：券商股要王者归来！ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">现在开始小号直播 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">说了不能讲，讲了板块，价格 ，不提代码，名称 都被关。。又不是我装逼。。你们要去找抖音财经唐总问她，为啥不给我财经加V。不换思想就换人！ </t>
+  </si>
+  <si>
+    <t>[cp]中报临近，成绩单即将公布。老美却愈加防备，欲重整稀土供应。是机会？还是陷阱？是继续乘风破浪还是会铩羽而归？敬请关注 今晚（周四）20:00【谈股论金】连麦专场，我将连麦@股海光头520和@小黎飞刀2013两位财经大V，带你一起探讨国之资源宝藏——稀土有色的投资机会，精彩不容错过。...全文</t>
+  </si>
+  <si>
+    <t xml:space="preserve">为什么？为什么？为什么？ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">抖音老是关我小黑屋，涨停股不给说 叶飞私募冠军直说的微博直播 </t>
+  </si>
+  <si>
+    <t>深圳“5·21”疫情已连续17天零新增】6月24日讯，深圳市卫健委副主任常巨平介绍，截至6月23日，从6月6日发现最后一个病例算起，“5·21”疫情已连续17天零新增，平稳度过14天病毒潜伏期，此外疫情局限于盐田港区及邻近区域，没有在其他区域发现感染者，可以判断此次疫情已经在一个潜伏期（14天）左右得到...全文</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6月24日讯，截至6月23日，4月以来权益类新基金成立规模超3206亿元。其中，一些基金已快速建仓。业内人士认为，新基金的建仓期一般在三个月左右，未来这些资金的逐步入市或将助推行情演绎。 (上证报)点评：上面吹响冲锋号了。。3731今年必过！！ </t>
+  </si>
+  <si>
+    <t>6月24日讯，惠云钛业披露2021年半年度业绩预告，预计上半年盈利9000万元-1.14亿元，同比增长92.94%-143.32%，扣非净利润预计同比增长107.99%-160.34%；报告期内钛白粉销售价格较上年同期有较大幅度的上涨，公司募投项目之一“8万吨/年塑料级金红石型钛白粉后处理改扩建项目”的项目建设一期工程（后处...全文</t>
+  </si>
+  <si>
+    <t xml:space="preserve">叶飞：新三板出现百倍机会 对监管要做好防火墙-股票频道-#和讯网# 叶飞：新三板出现百倍机会 对监管要做好防火墙 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0624中午收盘分析直播，补。 叶飞私募冠军直说的微博直播 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">上海新公司装修风格参考大家发表看法。 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">上海新公司装修风格参考大家发表看法。1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">补0624中午直播，现在 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">叶飞：券商股王者归来！ 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t>15:04【收评：两市回调创业板指跌1.2% BIPV指数逆势大涨超8%】6月24日讯，今日大小指数走势分化，近期主线科技股回调，沪指盘整收平，近2700家个股下跌，两市成交额连续5个交易日突破万亿元。受消息刺激，光伏建筑—体化(BIPV)行业指数大涨超8%，板块内上演涨停潮。白酒股分化，贵州茅台等一线白酒股...全文</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:34【快讯：稀土永磁板块午后再度走强】6月24日讯，五矿稀土拉升涨逾9%，盛和资源、北方稀土、广晟有色、英洛华、正海磁材等跟涨。点评：昨天已经强调加仓稀土，有色，10%的加仓。 </t>
+  </si>
+  <si>
+    <t>【广东财政厅：已建议按白酒不同度数设定不同比例税率或取消从量定额等】广东省人大代表就茅台米酒同征0.5元/斤消费税提建议，广东财政厅答复称：国家正在加紧推进消费税法立法，在前期征求意见阶段我们已反馈了有关意见和建议，其中包括建议按白酒不同度数设定不同比例税率或取消从量定额等。 (澎湃新...全文</t>
+  </si>
+  <si>
+    <t>快讯：白酒板块开盘继续走低6月24日讯，舍得酒业跌超7%，海南椰岛、皇台酒业、岩石股份、大豪科技等跌超4%。快讯：券商股早盘走强】6月24日讯，中银证券拉升封板，华鑫股份、中泰证券、南京证券、红塔证券等涨幅居前。【快讯：半导体集体调整 北方华创大跌7%】，淮北矿业拉升封板，新集能源、潞安...全文</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暑期大片：腾NM的Dragon中文名：你妈妈的龙 ！ 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">暑期大片：腾NM的Dragon中文名：你妈妈的龙 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">叶飞：券商股井喷倒计时 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">发布了头条文章：《叶飞：创业板新高趋势不可阻挡！》 @人脉爸爸 @微博视频 叶飞：创业板新高趋势不可阻挡！ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0624安徽经济台叶飞股评 叶飞私募冠军直说的微博视频 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">比赛 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">昨天晚上再沙发上睡着了。。。。。球赛昨晚没看。最近看样子需要找个地方好好做做按摩了。。要做心灵按摩，那种超越肉体的。。。 </t>
+  </si>
+  <si>
+    <t>抱歉，此微博已被作者删除。查看帮助：http://t.cn/Rfd3rQV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">关于上海新公司的资本运作计划：1：参股私募基金公司，发私募基金产品。2：参股要上市的新三板公司或者已经上市有做市商的新三板公司。3：帮助新三板公司做合规的市值管理。4：开展网红财经直播业务。这个我们有（）验。也有精（）。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">有谁认识这个妹子？浙江的。拿过浙江某某选美比赛大奖的。 </t>
+  </si>
+  <si>
+    <t>06月24日 13:59</t>
+  </si>
+  <si>
+    <t>31分钟前</t>
+  </si>
+  <si>
+    <t>41分钟前</t>
+  </si>
+  <si>
+    <t>42分钟前</t>
+  </si>
+  <si>
+    <t>43分钟前</t>
+  </si>
+  <si>
+    <t>44分钟前</t>
+  </si>
+  <si>
+    <t>今天 13:23</t>
+  </si>
+  <si>
+    <t>今天 12:25</t>
+  </si>
+  <si>
+    <t>今天 12:20</t>
+  </si>
+  <si>
+    <t>今天 12:15</t>
+  </si>
+  <si>
+    <t>今天 12:14</t>
+  </si>
+  <si>
+    <t>今天 12:13</t>
+  </si>
+  <si>
+    <t>今天 12:08</t>
+  </si>
+  <si>
+    <t>今天 12:06</t>
+  </si>
+  <si>
+    <t>今天 12:04</t>
+  </si>
+  <si>
+    <t>今天 12:03</t>
+  </si>
+  <si>
+    <t>今天 11:57</t>
+  </si>
+  <si>
+    <t>今天 11:48</t>
+  </si>
+  <si>
+    <t>今天 11:35</t>
+  </si>
+  <si>
+    <t>今天 11:34</t>
+  </si>
+  <si>
+    <t>今天 11:33</t>
+  </si>
+  <si>
+    <t>今天 11:00</t>
+  </si>
+  <si>
+    <t>今天 10:54</t>
+  </si>
+  <si>
+    <t>今天 10:39</t>
+  </si>
+  <si>
+    <t>今天 10:19</t>
+  </si>
+  <si>
+    <t>今天 09:47</t>
+  </si>
+  <si>
+    <t>今天 09:23</t>
   </si>
   <si>
     <t>今天 09:22</t>
   </si>
   <si>
-    <t>今天 09:10</t>
-  </si>
-  <si>
-    <t>今天 09:09</t>
-  </si>
-  <si>
-    <t>今天 08:49</t>
-  </si>
-  <si>
-    <t>今天 08:34</t>
-  </si>
-  <si>
-    <t>今天 07:28</t>
-  </si>
-  <si>
-    <t>今天 07:26</t>
-  </si>
-  <si>
-    <t>今天 07:16</t>
-  </si>
-  <si>
-    <t>今天 07:03</t>
-  </si>
-  <si>
-    <t>今天 06:51</t>
-  </si>
-  <si>
-    <t>今天 06:50</t>
-  </si>
-  <si>
-    <t>今天 06:40</t>
-  </si>
-  <si>
-    <t>今天 06:04</t>
-  </si>
-  <si>
-    <t>今天 06:01</t>
-  </si>
-  <si>
-    <t>今天 05:28</t>
-  </si>
-  <si>
-    <t>今天 01:31</t>
-  </si>
-  <si>
-    <t>今天 01:29</t>
+    <t>今天 09:19</t>
+  </si>
+  <si>
+    <t>今天 09:16</t>
+  </si>
+  <si>
+    <t>今天 09:07</t>
+  </si>
+  <si>
+    <t>今天 09:06</t>
+  </si>
+  <si>
+    <t>今天 09:00</t>
+  </si>
+  <si>
+    <t>今天 08:58</t>
+  </si>
+  <si>
+    <t>今天 08:57</t>
+  </si>
+  <si>
+    <t>今天 04:59</t>
+  </si>
+  <si>
+    <t>今天 02:36</t>
+  </si>
+  <si>
+    <t>今天 01:58</t>
+  </si>
+  <si>
+    <t>今天 01:52</t>
+  </si>
+  <si>
+    <t>今天 00:54</t>
   </si>
   <si>
     <t>今天 00:31</t>
@@ -271,238 +340,127 @@
     <t>今天 00:30</t>
   </si>
   <si>
-    <t>今天 00:23</t>
-  </si>
-  <si>
-    <t>今天 00:02</t>
-  </si>
-  <si>
-    <t>05月30日 23:58</t>
-  </si>
-  <si>
-    <t>05月30日 23:29</t>
-  </si>
-  <si>
-    <t>05月30日 23:14</t>
-  </si>
-  <si>
-    <t>05月30日 23:08</t>
-  </si>
-  <si>
-    <t>05月30日 21:45</t>
-  </si>
-  <si>
-    <t>05月30日 21:23</t>
-  </si>
-  <si>
-    <t>05月30日 21:21</t>
-  </si>
-  <si>
-    <t>05月30日 21:19</t>
-  </si>
-  <si>
-    <t>05月30日 21:04</t>
-  </si>
-  <si>
-    <t>05月30日 20:19</t>
-  </si>
-  <si>
-    <t>05月30日 20:06</t>
-  </si>
-  <si>
-    <t>05月30日 20:03</t>
-  </si>
-  <si>
-    <t>05月30日 19:38</t>
-  </si>
-  <si>
-    <t>05月30日 19:32</t>
-  </si>
-  <si>
-    <t>05月30日 19:31</t>
-  </si>
-  <si>
-    <t>05月30日 19:27</t>
-  </si>
-  <si>
-    <t>05月30日 19:26</t>
-  </si>
-  <si>
-    <t>05月30日 19:25</t>
-  </si>
-  <si>
-    <t>05月30日 19:22</t>
-  </si>
-  <si>
-    <t>05月30日 19:06</t>
-  </si>
-  <si>
-    <t>05月30日 18:57</t>
-  </si>
-  <si>
-    <t>05月30日 18:55</t>
-  </si>
-  <si>
-    <t>05月30日 18:35</t>
-  </si>
-  <si>
-    <t>05月30日 18:33</t>
-  </si>
-  <si>
-    <t>05月30日 18:29</t>
-  </si>
-  <si>
-    <t>05月30日 18:24</t>
-  </si>
-  <si>
-    <t>05月30日 18:20</t>
-  </si>
-  <si>
-    <t>05月30日 18:14</t>
-  </si>
-  <si>
-    <t>05月30日 17:55</t>
-  </si>
-  <si>
-    <t>05月30日 17:49</t>
-  </si>
-  <si>
-    <t>05月30日 17:39</t>
-  </si>
-  <si>
-    <t>05月30日 17:38</t>
-  </si>
-  <si>
-    <t>05月30日 17:19</t>
-  </si>
-  <si>
-    <t>05月30日 17:12</t>
-  </si>
-  <si>
-    <t>05月30日 17:02</t>
-  </si>
-  <si>
-    <t>05月30日 17:00</t>
-  </si>
-  <si>
-    <t>05月30日 16:59</t>
-  </si>
-  <si>
-    <t>05月30日 16:58</t>
-  </si>
-  <si>
-    <t>05月30日 16:55</t>
-  </si>
-  <si>
-    <t>05月30日 16:51</t>
-  </si>
-  <si>
-    <t>05月30日 16:49</t>
-  </si>
-  <si>
-    <t>05月30日 16:48</t>
-  </si>
-  <si>
-    <t>05月30日 16:44</t>
-  </si>
-  <si>
-    <t>05月30日 16:43</t>
-  </si>
-  <si>
-    <t>05月30日 16:42</t>
-  </si>
-  <si>
-    <t>05月30日 16:33</t>
-  </si>
-  <si>
-    <t>05月30日 16:30</t>
-  </si>
-  <si>
-    <t>05月30日 16:28</t>
-  </si>
-  <si>
-    <t>05月30日 16:27</t>
-  </si>
-  <si>
-    <t>05月30日 16:11</t>
-  </si>
-  <si>
-    <t>05月30日 16:06</t>
-  </si>
-  <si>
-    <t>05月30日 16:05</t>
-  </si>
-  <si>
-    <t>05月30日 15:59</t>
-  </si>
-  <si>
-    <t>05月30日 15:49</t>
-  </si>
-  <si>
-    <t>05月30日 13:04</t>
-  </si>
-  <si>
-    <t>05月30日 12:47</t>
-  </si>
-  <si>
-    <t>05月30日 12:39</t>
-  </si>
-  <si>
-    <t>05月30日 12:29</t>
-  </si>
-  <si>
-    <t>05月30日 11:28</t>
-  </si>
-  <si>
-    <t>05月30日 11:23</t>
-  </si>
-  <si>
-    <t>05月30日 11:21</t>
-  </si>
-  <si>
-    <t>05月30日 10:39</t>
-  </si>
-  <si>
-    <t>05月30日 10:04</t>
-  </si>
-  <si>
-    <t>05月30日 09:54</t>
-  </si>
-  <si>
-    <t>05月30日 09:39</t>
-  </si>
-  <si>
-    <t>05月30日 09:28</t>
-  </si>
-  <si>
-    <t>05月30日 08:38</t>
-  </si>
-  <si>
-    <t>05月30日 08:33</t>
-  </si>
-  <si>
-    <t>05月30日 08:18</t>
-  </si>
-  <si>
-    <t>05月30日 07:58</t>
-  </si>
-  <si>
-    <t>05月30日 07:56</t>
-  </si>
-  <si>
-    <t>05月30日 07:52</t>
-  </si>
-  <si>
-    <t>05月30日 07:17</t>
-  </si>
-  <si>
-    <t>05月30日 06:53</t>
-  </si>
-  <si>
-    <t>05月30日 06:00</t>
-  </si>
-  <si>
-    <t>05月30日 05:50</t>
+    <t>今天 00:24</t>
+  </si>
+  <si>
+    <t>06月24日 23:23</t>
+  </si>
+  <si>
+    <t>06月24日 20:00</t>
+  </si>
+  <si>
+    <t>06月24日 19:43</t>
+  </si>
+  <si>
+    <t>06月24日 19:10</t>
+  </si>
+  <si>
+    <t>06月24日 18:32</t>
+  </si>
+  <si>
+    <t>06月24日 18:31</t>
+  </si>
+  <si>
+    <t>06月24日 18:27</t>
+  </si>
+  <si>
+    <t>06月24日 18:23</t>
+  </si>
+  <si>
+    <t>06月24日 18:22</t>
+  </si>
+  <si>
+    <t>06月24日 18:21</t>
+  </si>
+  <si>
+    <t>06月24日 18:20</t>
+  </si>
+  <si>
+    <t>06月24日 18:17</t>
+  </si>
+  <si>
+    <t>06月24日 17:43</t>
+  </si>
+  <si>
+    <t>06月24日 16:20</t>
+  </si>
+  <si>
+    <t>06月24日 16:18</t>
+  </si>
+  <si>
+    <t>06月24日 16:16</t>
+  </si>
+  <si>
+    <t>06月24日 16:15</t>
+  </si>
+  <si>
+    <t>06月24日 16:14</t>
+  </si>
+  <si>
+    <t>06月24日 16:08</t>
+  </si>
+  <si>
+    <t>06月24日 16:07</t>
+  </si>
+  <si>
+    <t>06月24日 15:12</t>
+  </si>
+  <si>
+    <t>06月24日 15:11</t>
+  </si>
+  <si>
+    <t>06月24日 15:10</t>
+  </si>
+  <si>
+    <t>06月24日 15:09</t>
+  </si>
+  <si>
+    <t>06月24日 14:59</t>
+  </si>
+  <si>
+    <t>06月24日 14:50</t>
+  </si>
+  <si>
+    <t>06月24日 11:49</t>
+  </si>
+  <si>
+    <t>06月24日 11:47</t>
+  </si>
+  <si>
+    <t>06月24日 10:29</t>
+  </si>
+  <si>
+    <t>06月24日 10:27</t>
+  </si>
+  <si>
+    <t>06月24日 09:33</t>
+  </si>
+  <si>
+    <t>06月24日 09:30</t>
+  </si>
+  <si>
+    <t>06月24日 09:07</t>
+  </si>
+  <si>
+    <t>06月24日 08:42</t>
+  </si>
+  <si>
+    <t>06月24日 08:28</t>
+  </si>
+  <si>
+    <t>06月24日 08:27</t>
+  </si>
+  <si>
+    <t>06月23日 22:08</t>
+  </si>
+  <si>
+    <t>来自微博 weibo.com</t>
+  </si>
+  <si>
+    <t>来自微博直播平台</t>
+  </si>
+  <si>
+    <t>来自东方财富手机版</t>
   </si>
   <si>
     <t>来自HUAWEI Mate 20 X</t>
@@ -511,10 +469,10 @@
     <t>来自微博视频号</t>
   </si>
   <si>
+    <t>来自分享按钮</t>
+  </si>
+  <si>
     <t>来自微博直播</t>
-  </si>
-  <si>
-    <t>来自百度App</t>
   </si>
 </sst>
 </file>
@@ -872,7 +830,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -906,19 +864,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -926,19 +884,19 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G3" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -946,19 +904,19 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -966,19 +924,19 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -986,19 +944,19 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1006,19 +964,19 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
         <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1026,19 +984,19 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1046,19 +1004,19 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1066,59 +1024,59 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>13</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1126,19 +1084,19 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1146,199 +1104,199 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C20">
-        <v>157</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>294</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C22">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="2:7">
@@ -1346,347 +1304,347 @@
         <v>25</v>
       </c>
       <c r="C24">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G25" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C27">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="D27">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C28">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C29">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C30">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E30">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C31">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E31">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C32">
-        <v>370</v>
+        <v>35</v>
       </c>
       <c r="D32">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G32" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C33">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G33" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C34">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G34" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C35">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C36">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="D36">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G36" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C37">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G37" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C38">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G38" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C39">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G39" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C40">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E40">
         <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G40" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C41">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1695,50 +1653,50 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G41" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C42">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G42" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C43">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G43" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="2:7">
@@ -1746,67 +1704,67 @@
         <v>31</v>
       </c>
       <c r="C44">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G44" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C45">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G45" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C46">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E46">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F46" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G46" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C47">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1815,95 +1773,95 @@
         <v>3</v>
       </c>
       <c r="F47" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G47" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C48">
-        <v>397</v>
+        <v>25</v>
       </c>
       <c r="D48">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="E48">
-        <v>451</v>
+        <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G48" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C49">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G49" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C50">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G50" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C51">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D51">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G51" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C52">
         <v>12</v>
@@ -1915,230 +1873,230 @@
         <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G52" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C53">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G53" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="2:7">
       <c r="B54" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C54">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D54">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G54" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="2:7">
       <c r="B55" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C55">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G55" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="2:7">
       <c r="B56" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C56">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G56" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="2:7">
       <c r="B57" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C57">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G57" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="2:7">
       <c r="B58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C58">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E58">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F58" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G58" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="2:7">
       <c r="B59" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C59">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G59" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="2:7">
       <c r="B60" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C60">
-        <v>852</v>
+        <v>7</v>
       </c>
       <c r="D60">
-        <v>562</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>241</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G60" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C61">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="G61" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="2:7">
       <c r="B62" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C62">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="D62">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="F62" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G62" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="2:7">
       <c r="B63" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C63">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D63">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="G63" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="2:7">
@@ -2146,187 +2104,187 @@
         <v>44</v>
       </c>
       <c r="C64">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E64">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F64" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="G64" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="2:7">
       <c r="B65" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C65">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="G65" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="2:7">
       <c r="B66" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C66">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="F66" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G66" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="2:7">
       <c r="B67" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C67">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G67" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C68">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="G68" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="2:7">
       <c r="B69" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C69">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="G69" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="2:7">
       <c r="B70" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C70">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G70" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="2:7">
       <c r="B71" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C71">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D71">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="G71" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="2:7">
       <c r="B72" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C72">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F72" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="G72" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="2:7">
       <c r="B73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C73">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2335,110 +2293,110 @@
         <v>2</v>
       </c>
       <c r="F73" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="G73" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="2:7">
       <c r="B74" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C74">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E74">
         <v>2</v>
       </c>
       <c r="F74" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="G74" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="2:7">
       <c r="B75" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C75">
-        <v>187</v>
+        <v>35</v>
       </c>
       <c r="D75">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E75">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="F75" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="G75" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="2:7">
       <c r="B76" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C76">
-        <v>219</v>
+        <v>30</v>
       </c>
       <c r="D76">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E76">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G76" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="2:7">
       <c r="B77" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C77">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E77">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F77" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="G77" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="2:7">
       <c r="B78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C78">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E78">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="F78" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="G78" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="2:7">
@@ -2446,19 +2404,19 @@
         <v>48</v>
       </c>
       <c r="C79">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F79" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="G79" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="2:7">
@@ -2466,439 +2424,419 @@
         <v>49</v>
       </c>
       <c r="C80">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="D80">
         <v>4</v>
       </c>
       <c r="E80">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="F80" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="G80" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C81">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="D81">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="F81" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="G81" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" spans="2:7">
       <c r="B82" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C82">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="D82">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="E82">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F82" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="G82" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83" spans="2:7">
       <c r="B83" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C83">
-        <v>223</v>
+        <v>30</v>
       </c>
       <c r="D83">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G83" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="2:7">
       <c r="B84" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C84">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F84" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G84" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="2:7">
       <c r="B85" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C85">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="D85">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E85">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="G85" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86" spans="2:7">
       <c r="B86" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C86">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D86">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E86">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F86" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G86" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="2:7">
       <c r="B87" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C87">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F87" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="G87" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="2:7">
       <c r="B88" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C88">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E88">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F88" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="G88" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89" spans="2:7">
       <c r="B89" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C89">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="D89">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="F89" t="s">
+        <v>134</v>
+      </c>
+      <c r="G89" t="s">
         <v>150</v>
-      </c>
-      <c r="G89" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="90" spans="2:7">
       <c r="B90" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C90">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="D90">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E90">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F90" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="G90" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91" spans="2:7">
       <c r="B91" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C91">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D91">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E91">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F91" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="G91" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92" spans="2:7">
       <c r="B92" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C92">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D92">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="G92" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="2:7">
       <c r="B93" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C93">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="G93" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="2:7">
       <c r="B94" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C94">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="E94">
-        <v>16</v>
+        <v>1062</v>
       </c>
       <c r="F94" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="G94" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95" spans="2:7">
       <c r="B95" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C95">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
         <v>4</v>
       </c>
-      <c r="E95">
-        <v>16</v>
-      </c>
       <c r="F95" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="G95" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96" spans="2:7">
       <c r="B96" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C96">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F96" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="G96" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97" spans="2:7">
       <c r="B97" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C97">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E97">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F97" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="G97" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="2:7">
       <c r="B98" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C98">
-        <v>378</v>
+        <v>14</v>
       </c>
       <c r="D98">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="G98" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99" spans="2:7">
       <c r="B99" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C99">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="G99" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100" spans="2:7">
       <c r="B100" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C100">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="D100">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F100" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="G100" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7">
-      <c r="B101" t="s">
-        <v>64</v>
-      </c>
-      <c r="C101">
-        <v>32</v>
-      </c>
-      <c r="D101">
-        <v>4</v>
-      </c>
-      <c r="E101">
-        <v>6</v>
-      </c>
-      <c r="F101" t="s">
-        <v>162</v>
-      </c>
-      <c r="G101" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
